--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_10_9.xlsx
@@ -369,187 +369,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
       <c r="B3">
-        <v>4.215827774420422</v>
+        <v>4.036825632626817</v>
       </c>
       <c r="C3">
-        <v>4.090030569194725</v>
+        <v>3.407109591918855</v>
       </c>
       <c r="D3">
-        <v>-4.11977425520006</v>
+        <v>-3.591129714716879</v>
       </c>
       <c r="E3">
         <v>-4.715480642250625</v>
@@ -695,28 +692,25 @@
       <c r="AZ3">
         <v>-4.715480642250625</v>
       </c>
-      <c r="BA3">
-        <v>-4.715480642250625</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
       <c r="B4">
-        <v>4.159182395643479</v>
+        <v>4.022829155340357</v>
       </c>
       <c r="C4">
-        <v>3.667471549580981</v>
+        <v>3.752971487422818</v>
       </c>
       <c r="D4">
-        <v>-2.56348361236044</v>
+        <v>-1.300150869559236</v>
       </c>
       <c r="E4">
-        <v>0.1110321191903019</v>
+        <v>-2.725947775269033</v>
       </c>
       <c r="F4">
-        <v>4.427373160049175</v>
+        <v>3.52827217675542</v>
       </c>
       <c r="G4">
         <v>6.130685532900904</v>
@@ -856,31 +850,25 @@
       <c r="AZ4">
         <v>6.130685532900904</v>
       </c>
-      <c r="BA4">
-        <v>6.130685532900904</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>3.981521311358605</v>
-      </c>
       <c r="D5">
-        <v>-1.541392858456725</v>
+        <v>-0.8508100743175318</v>
       </c>
       <c r="E5">
-        <v>2.044640821115751</v>
+        <v>-1.824945357808061</v>
       </c>
       <c r="F5">
-        <v>2.998187540194763</v>
+        <v>1.194245528719495</v>
       </c>
       <c r="G5">
-        <v>8.171687307827558</v>
+        <v>5.993806847197725</v>
       </c>
       <c r="H5">
-        <v>8.03322551738226</v>
+        <v>7.607887362976751</v>
       </c>
       <c r="I5">
         <v>8.703939237318981</v>
@@ -1014,31 +1002,25 @@
       <c r="AZ5">
         <v>8.703939237318981</v>
       </c>
-      <c r="BA5">
-        <v>8.703939237318981</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-1.332025579495066</v>
-      </c>
       <c r="F6">
-        <v>0.4815680245513043</v>
+        <v>0.7396858739002532</v>
       </c>
       <c r="G6">
-        <v>7.792337960783646</v>
+        <v>2.558160213067118</v>
       </c>
       <c r="H6">
-        <v>6.594623719283743</v>
+        <v>3.063639588842682</v>
       </c>
       <c r="I6">
-        <v>7.024938805895942</v>
+        <v>6.924353497010971</v>
       </c>
       <c r="J6">
-        <v>3.165505535041224</v>
+        <v>3.881953143326466</v>
       </c>
       <c r="K6">
         <v>2.688274587589135</v>
@@ -1166,31 +1148,25 @@
       <c r="AZ6">
         <v>2.688274587589135</v>
       </c>
-      <c r="BA6">
-        <v>2.688274587589135</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>8.501318303813665</v>
-      </c>
       <c r="H7">
-        <v>8.035484051482932</v>
+        <v>3.000243177121842</v>
       </c>
       <c r="I7">
-        <v>7.534376071895665</v>
+        <v>6.715049981923249</v>
       </c>
       <c r="J7">
-        <v>4.769699414586626</v>
+        <v>7.155859501153827</v>
       </c>
       <c r="K7">
-        <v>2.539548427141214</v>
+        <v>3.737237443362851</v>
       </c>
       <c r="L7">
-        <v>0.6717944919448771</v>
+        <v>0.354775830825127</v>
       </c>
       <c r="M7">
         <v>0.9946838291217786</v>
@@ -1312,31 +1288,25 @@
       <c r="AZ7">
         <v>0.9946838291217786</v>
       </c>
-      <c r="BA7">
-        <v>0.9946838291217786</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>7.423558782238171</v>
-      </c>
       <c r="J8">
-        <v>5.117477330593334</v>
+        <v>7.639826570900321</v>
       </c>
       <c r="K8">
-        <v>3.994497477491188</v>
+        <v>5.543371427949406</v>
       </c>
       <c r="L8">
-        <v>3.738628406951561</v>
+        <v>2.700497159199755</v>
       </c>
       <c r="M8">
-        <v>4.911355197600598</v>
+        <v>3.504647804006344</v>
       </c>
       <c r="N8">
-        <v>5.837587351923346</v>
+        <v>5.106323395421475</v>
       </c>
       <c r="O8">
         <v>5.562499360312567</v>
@@ -1452,31 +1422,25 @@
       <c r="AZ8">
         <v>5.562499360312567</v>
       </c>
-      <c r="BA8">
-        <v>5.562499360312567</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>2.873286240454465</v>
-      </c>
       <c r="L9">
-        <v>2.134358981558515</v>
+        <v>2.745576508772718</v>
       </c>
       <c r="M9">
-        <v>5.249267487544018</v>
+        <v>2.741808962714254</v>
       </c>
       <c r="N9">
-        <v>5.592243950946529</v>
+        <v>2.62739064366051</v>
       </c>
       <c r="O9">
-        <v>5.487340994505363</v>
+        <v>4.130094879572455</v>
       </c>
       <c r="P9">
-        <v>4.09237104505884</v>
+        <v>3.830515520137801</v>
       </c>
       <c r="Q9">
         <v>4.195080504802551</v>
@@ -1586,31 +1550,25 @@
       <c r="AZ9">
         <v>4.195080504802551</v>
       </c>
-      <c r="BA9">
-        <v>4.195080504802551</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>3.80552193613275</v>
-      </c>
       <c r="N10">
-        <v>4.242279299672713</v>
+        <v>2.409575655597185</v>
       </c>
       <c r="O10">
-        <v>5.818133718527907</v>
+        <v>3.487028185385466</v>
       </c>
       <c r="P10">
-        <v>5.183911701321198</v>
+        <v>3.858663141671226</v>
       </c>
       <c r="Q10">
-        <v>5.494748269944894</v>
+        <v>5.194458387461709</v>
       </c>
       <c r="R10">
-        <v>4.463171841920266</v>
+        <v>4.328608026086478</v>
       </c>
       <c r="S10">
         <v>4.230623896992025</v>
@@ -1714,31 +1672,25 @@
       <c r="AZ10">
         <v>4.230623896992025</v>
       </c>
-      <c r="BA10">
-        <v>4.230623896992025</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>5.592584030225312</v>
-      </c>
       <c r="P11">
-        <v>4.887599755366234</v>
+        <v>3.846803168785895</v>
       </c>
       <c r="Q11">
-        <v>4.902203996736398</v>
+        <v>5.120463941803588</v>
       </c>
       <c r="R11">
-        <v>4.815316608704245</v>
+        <v>4.721407739775696</v>
       </c>
       <c r="S11">
-        <v>4.590028883910469</v>
+        <v>4.372655645302403</v>
       </c>
       <c r="T11">
-        <v>4.466929963999822</v>
+        <v>4.429102498614346</v>
       </c>
       <c r="U11">
         <v>4.933871867981643</v>
@@ -1836,37 +1788,31 @@
       <c r="AZ11">
         <v>4.933871867981643</v>
       </c>
-      <c r="BA11">
-        <v>4.933871867981643</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>4.874816092868572</v>
-      </c>
       <c r="R12">
-        <v>4.315553462234245</v>
+        <v>4.692155702771772</v>
       </c>
       <c r="S12">
-        <v>4.437072699259081</v>
+        <v>4.265103039948781</v>
       </c>
       <c r="T12">
-        <v>4.347685442453564</v>
+        <v>4.21218881008929</v>
       </c>
       <c r="U12">
-        <v>4.971431636697599</v>
+        <v>5.324897060120137</v>
       </c>
       <c r="V12">
-        <v>6.043140264557834</v>
+        <v>5.783465271898192</v>
       </c>
       <c r="W12">
-        <v>5.805114579758142</v>
+        <v>5.850954342715009</v>
       </c>
       <c r="X12">
-        <v>5.36938819563848</v>
+        <v>5.410900500218596</v>
       </c>
       <c r="Y12">
         <v>5.456119081407906</v>
@@ -1952,46 +1898,37 @@
       <c r="AZ12">
         <v>5.456119081407906</v>
       </c>
-      <c r="BA12">
-        <v>5.456119081407906</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>4.494718918653473</v>
-      </c>
-      <c r="S13">
-        <v>4.377889114462752</v>
-      </c>
       <c r="T13">
-        <v>4.338792338414388</v>
+        <v>4.170475069261737</v>
       </c>
       <c r="U13">
-        <v>4.485025130469844</v>
+        <v>4.903811234073996</v>
       </c>
       <c r="V13">
-        <v>4.707135216842206</v>
+        <v>4.964333730716497</v>
       </c>
       <c r="W13">
-        <v>4.424737146793878</v>
+        <v>4.990046926794744</v>
       </c>
       <c r="X13">
-        <v>4.005038151193219</v>
+        <v>4.531726208768672</v>
       </c>
       <c r="Y13">
-        <v>4.568710393603181</v>
+        <v>4.693063499664252</v>
       </c>
       <c r="Z13">
-        <v>4.016715734612819</v>
+        <v>4.115125864415514</v>
       </c>
       <c r="AA13">
-        <v>4.46372163173876</v>
+        <v>4.557673974453769</v>
       </c>
       <c r="AB13">
-        <v>3.394578533164361</v>
+        <v>3.383644094252025</v>
       </c>
       <c r="AC13">
         <v>3.346849276607955</v>
@@ -2065,52 +2002,40 @@
       <c r="AZ13">
         <v>3.346849276607955</v>
       </c>
-      <c r="BA13">
-        <v>3.346849276607955</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>4.400276391513258</v>
-      </c>
-      <c r="U14">
-        <v>4.830787896673794</v>
-      </c>
-      <c r="V14">
-        <v>4.717286745340687</v>
-      </c>
       <c r="W14">
-        <v>4.476389510974066</v>
+        <v>4.968826885654343</v>
       </c>
       <c r="X14">
-        <v>4.34976037865118</v>
+        <v>4.927903468820927</v>
       </c>
       <c r="Y14">
-        <v>3.630070893707082</v>
+        <v>4.974770951190899</v>
       </c>
       <c r="Z14">
-        <v>3.850506268898912</v>
+        <v>4.871235017471043</v>
       </c>
       <c r="AA14">
-        <v>3.886160845343123</v>
+        <v>5.208344373007368</v>
       </c>
       <c r="AB14">
-        <v>3.0293693073427</v>
+        <v>3.4540322565767</v>
       </c>
       <c r="AC14">
-        <v>2.918306187999509</v>
+        <v>3.273620772016161</v>
       </c>
       <c r="AD14">
-        <v>3.033351895826453</v>
+        <v>3.2928463695165</v>
       </c>
       <c r="AE14">
-        <v>0.1697522665757845</v>
+        <v>1.13158575217045</v>
       </c>
       <c r="AF14">
-        <v>-9.121145393096574</v>
+        <v>-9.2489161297999</v>
       </c>
       <c r="AG14">
         <v>-9.2489161297999</v>
@@ -2172,58 +2097,40 @@
       <c r="AZ14">
         <v>-9.2489161297999</v>
       </c>
-      <c r="BA14">
-        <v>-9.2489161297999</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>5.066046498451238</v>
-      </c>
-      <c r="W15">
-        <v>4.801712901693711</v>
-      </c>
-      <c r="X15">
-        <v>4.462221172466818</v>
-      </c>
-      <c r="Y15">
-        <v>3.3945002273013</v>
-      </c>
-      <c r="Z15">
-        <v>3.483371994373363</v>
-      </c>
       <c r="AA15">
-        <v>3.423255698236383</v>
+        <v>5.090670242990059</v>
       </c>
       <c r="AB15">
-        <v>3.268578400906952</v>
+        <v>4.297859543426918</v>
       </c>
       <c r="AC15">
-        <v>3.159113022317972</v>
+        <v>4.183784949335911</v>
       </c>
       <c r="AD15">
-        <v>3.157481522076955</v>
+        <v>3.901680317162204</v>
       </c>
       <c r="AE15">
-        <v>3.489644219722376</v>
+        <v>2.143123507515932</v>
       </c>
       <c r="AF15">
-        <v>8.901016312581778</v>
+        <v>-8.033751002286738</v>
       </c>
       <c r="AG15">
-        <v>3.311473853895319</v>
+        <v>-4.319815935184923</v>
       </c>
       <c r="AH15">
-        <v>-1.417336502781907</v>
+        <v>-2.573749071621145</v>
       </c>
       <c r="AI15">
-        <v>-0.7888645813307615</v>
+        <v>-1.77012120409461</v>
       </c>
       <c r="AJ15">
-        <v>-0.9984771834683381</v>
+        <v>-1.287084480507283</v>
       </c>
       <c r="AK15">
         <v>-1.287084480507283</v>
@@ -2273,61 +2180,40 @@
       <c r="AZ15">
         <v>-1.287084480507283</v>
       </c>
-      <c r="BA15">
-        <v>-1.287084480507283</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>3.971428623775575</v>
-      </c>
-      <c r="Z16">
-        <v>3.88785692972955</v>
-      </c>
-      <c r="AA16">
-        <v>4.03523887211017</v>
-      </c>
-      <c r="AB16">
-        <v>3.318019181414544</v>
-      </c>
-      <c r="AC16">
-        <v>3.153519820432638</v>
-      </c>
-      <c r="AD16">
-        <v>3.17066169016289</v>
-      </c>
       <c r="AE16">
-        <v>2.836754540149267</v>
+        <v>2.715877055855054</v>
       </c>
       <c r="AF16">
-        <v>4.617503631185094</v>
+        <v>-3.231466728386512</v>
       </c>
       <c r="AG16">
-        <v>5.769045062689826</v>
+        <v>-2.283596933318199</v>
       </c>
       <c r="AH16">
-        <v>7.257727473408626</v>
+        <v>-1.545753571259545</v>
       </c>
       <c r="AI16">
-        <v>6.664201294442429</v>
+        <v>-0.6252235182164778</v>
       </c>
       <c r="AJ16">
-        <v>6.640559540111668</v>
+        <v>0.7555897036957804</v>
       </c>
       <c r="AK16">
-        <v>6.859306473574622</v>
+        <v>1.850145327219943</v>
       </c>
       <c r="AL16">
-        <v>5.684409614634189</v>
+        <v>0.3839706909697815</v>
       </c>
       <c r="AM16">
-        <v>2.213037610570945</v>
+        <v>1.286283684448075</v>
       </c>
       <c r="AN16">
-        <v>1.969423516885649</v>
+        <v>1.494343500592232</v>
       </c>
       <c r="AO16">
         <v>1.494343500592232</v>
@@ -2365,61 +2251,43 @@
       <c r="AZ16">
         <v>1.494343500592232</v>
       </c>
-      <c r="BA16">
-        <v>1.494343500592232</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>3.304014154362922</v>
-      </c>
-      <c r="AD17">
-        <v>3.349640274072607</v>
-      </c>
-      <c r="AE17">
-        <v>2.377502957257938</v>
-      </c>
-      <c r="AF17">
-        <v>3.078503759628037</v>
-      </c>
-      <c r="AG17">
-        <v>6.603750770535965</v>
-      </c>
       <c r="AH17">
-        <v>6.402660711025177</v>
+        <v>-2.116077710961051</v>
       </c>
       <c r="AI17">
-        <v>6.457218467305603</v>
+        <v>-1.963539710570827</v>
       </c>
       <c r="AJ17">
-        <v>6.432177679625517</v>
+        <v>-2.066729984628812</v>
       </c>
       <c r="AK17">
-        <v>4.14412203939063</v>
+        <v>-1.566207193731317</v>
       </c>
       <c r="AL17">
-        <v>7.845281703915563</v>
+        <v>-3.055292064789206</v>
       </c>
       <c r="AM17">
-        <v>4.580434652382626</v>
+        <v>-2.183761975384579</v>
       </c>
       <c r="AN17">
-        <v>5.449319663556662</v>
+        <v>-1.161086276452006</v>
       </c>
       <c r="AO17">
-        <v>2.101763629409859</v>
+        <v>2.552834403233084</v>
       </c>
       <c r="AP17">
-        <v>1.008942292657955</v>
+        <v>-0.3407161957438287</v>
       </c>
       <c r="AQ17">
-        <v>0.07497215279876901</v>
+        <v>-0.7189954590872905</v>
       </c>
       <c r="AR17">
-        <v>-0.6099727569748192</v>
+        <v>-0.6982718287330991</v>
       </c>
       <c r="AS17">
         <v>-0.6982718287330991</v>
@@ -2445,61 +2313,43 @@
       <c r="AZ17">
         <v>-0.6982718287330991</v>
       </c>
-      <c r="BA17">
-        <v>-0.6982718287330991</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>12.47276337847671</v>
-      </c>
-      <c r="AH18">
-        <v>11.11336521210522</v>
-      </c>
-      <c r="AI18">
-        <v>11.15498259923762</v>
-      </c>
-      <c r="AJ18">
-        <v>11.05783371304891</v>
-      </c>
-      <c r="AK18">
-        <v>4.022944653667326</v>
-      </c>
       <c r="AL18">
-        <v>4.531855792463491</v>
+        <v>-2.721847517360942</v>
       </c>
       <c r="AM18">
-        <v>3.458422596023603</v>
+        <v>-2.735252174038294</v>
       </c>
       <c r="AN18">
-        <v>3.781832767309434</v>
+        <v>-2.072596465705934</v>
       </c>
       <c r="AO18">
-        <v>4.230775944183174</v>
+        <v>7.714333496601267</v>
       </c>
       <c r="AP18">
-        <v>3.697444518900217</v>
+        <v>1.987749514178372</v>
       </c>
       <c r="AQ18">
-        <v>4.040083433499064</v>
+        <v>0.7347074005453758</v>
       </c>
       <c r="AR18">
-        <v>3.741282892331332</v>
+        <v>0.4357420177721227</v>
       </c>
       <c r="AS18">
-        <v>1.982193683323752</v>
+        <v>-1.04392885455985</v>
       </c>
       <c r="AT18">
-        <v>0.8104515225652476</v>
+        <v>-1.305399582732825</v>
       </c>
       <c r="AU18">
-        <v>-0.6331955302210424</v>
+        <v>-0.382605475081077</v>
       </c>
       <c r="AV18">
-        <v>-0.00883970647999055</v>
+        <v>-0.4137309550271362</v>
       </c>
       <c r="AW18">
         <v>-0.4137309550271362</v>
@@ -2513,173 +2363,88 @@
       <c r="AZ18">
         <v>-0.4137309550271362</v>
       </c>
-      <c r="BA18">
-        <v>-0.4137309550271362</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>4.999320748492231</v>
-      </c>
-      <c r="AL19">
-        <v>6.065161979646772</v>
-      </c>
-      <c r="AM19">
-        <v>3.36062141619542</v>
-      </c>
-      <c r="AN19">
-        <v>3.685949372512987</v>
-      </c>
-      <c r="AO19">
-        <v>2.959512850959456</v>
-      </c>
       <c r="AP19">
-        <v>2.631067468573844</v>
+        <v>2.294796367309426</v>
       </c>
       <c r="AQ19">
-        <v>2.718052369489721</v>
+        <v>1.134856662495087</v>
       </c>
       <c r="AR19">
-        <v>3.67203035262762</v>
+        <v>0.5549356477171807</v>
       </c>
       <c r="AS19">
-        <v>3.497515653566641</v>
+        <v>-0.2903806308400148</v>
       </c>
       <c r="AT19">
-        <v>3.991214083375483</v>
+        <v>-0.9722577196979332</v>
       </c>
       <c r="AU19">
-        <v>3.246859529593316</v>
+        <v>0.3097078768351302</v>
       </c>
       <c r="AV19">
-        <v>3.914957842639755</v>
+        <v>0.6619818620803297</v>
       </c>
       <c r="AW19">
-        <v>1.755378915560413</v>
+        <v>0.8860470190541037</v>
       </c>
       <c r="AX19">
-        <v>1.482352664753539</v>
+        <v>0.3127680745294459</v>
       </c>
       <c r="AY19">
-        <v>0.3259605486952699</v>
+        <v>0.2094327661663842</v>
       </c>
       <c r="AZ19">
-        <v>0.2249761948293294</v>
-      </c>
-      <c r="BA19">
         <v>0.2267356977060819</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>3.229182289958366</v>
-      </c>
-      <c r="AP20">
-        <v>2.546228992443877</v>
-      </c>
-      <c r="AQ20">
-        <v>2.366993357843539</v>
-      </c>
-      <c r="AR20">
-        <v>2.351209263168763</v>
-      </c>
-      <c r="AS20">
-        <v>3.08160381918976</v>
-      </c>
       <c r="AT20">
-        <v>3.211463973967388</v>
+        <v>-0.9693793514180871</v>
       </c>
       <c r="AU20">
-        <v>2.881266686666306</v>
+        <v>-0.4930812003329232</v>
       </c>
       <c r="AV20">
-        <v>1.286497999628966</v>
+        <v>0.2158288603241632</v>
       </c>
       <c r="AW20">
-        <v>2.124536273519984</v>
+        <v>-0.07690764958805385</v>
       </c>
       <c r="AX20">
-        <v>1.56174683623842</v>
+        <v>-0.5546801915590427</v>
       </c>
       <c r="AY20">
-        <v>-0.6483827323783498</v>
+        <v>-0.6242159253788016</v>
       </c>
       <c r="AZ20">
-        <v>-0.1744462289204107</v>
-      </c>
-      <c r="BA20">
-        <v>-0.1590727640771283</v>
+        <v>-0.4189713395563288</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>3.076028867484504</v>
-      </c>
-      <c r="AT21">
-        <v>2.88413928764899</v>
-      </c>
-      <c r="AU21">
-        <v>2.000717936241081</v>
-      </c>
-      <c r="AV21">
-        <v>1.901180450040707</v>
-      </c>
-      <c r="AW21">
-        <v>1.714602138375931</v>
-      </c>
       <c r="AX21">
-        <v>1.287598955121205</v>
+        <v>-0.4058984524274334</v>
       </c>
       <c r="AY21">
-        <v>-0.2468241485103051</v>
+        <v>-0.361064859613236</v>
       </c>
       <c r="AZ21">
-        <v>0.385806530965338</v>
-      </c>
-      <c r="BA21">
-        <v>0.7507334221598327</v>
+        <v>-0.1147530479131076</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>1.673368297027045</v>
-      </c>
-      <c r="AX22">
-        <v>1.23498573453158</v>
-      </c>
-      <c r="AY22">
-        <v>-0.4656674553794371</v>
-      </c>
-      <c r="AZ22">
-        <v>-0.1158536262940824</v>
-      </c>
-      <c r="BA22">
-        <v>0.7268793243853766</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>0.5721331665315077</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_10_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-2.21482332957591</v>
       </c>
       <c r="AG17">
-        <v>-9.810777096850787</v>
+        <v>-12.64425337954553</v>
       </c>
       <c r="AH17">
         <v>-8.784173899737169</v>
@@ -2451,19 +2451,19 @@
         <v>-0.6322362079330346</v>
       </c>
       <c r="AG18">
-        <v>-6.212835522792448</v>
+        <v>-18.48823254760789</v>
       </c>
       <c r="AH18">
-        <v>2.199380357735481</v>
+        <v>-1.352810423674344</v>
       </c>
       <c r="AI18">
-        <v>5.72229384158125</v>
+        <v>4.074459326939794</v>
       </c>
       <c r="AJ18">
-        <v>6.09521976277807</v>
+        <v>5.581748139214504</v>
       </c>
       <c r="AK18">
-        <v>5.797134106720514</v>
+        <v>5.454877718182383</v>
       </c>
       <c r="AL18">
         <v>5.110501195359984</v>
@@ -2522,31 +2522,31 @@
         <v>0.1730630839669178</v>
       </c>
       <c r="AG19">
-        <v>-3.91449492013175</v>
+        <v>-8.769168140152539</v>
       </c>
       <c r="AH19">
-        <v>-0.8696477716707229</v>
+        <v>-1.731521943170589</v>
       </c>
       <c r="AI19">
-        <v>1.117941783921328</v>
+        <v>-0.2414327668618266</v>
       </c>
       <c r="AJ19">
-        <v>1.839905110456375</v>
+        <v>1.077755602068331</v>
       </c>
       <c r="AK19">
-        <v>2.056896997569879</v>
+        <v>1.148476797857945</v>
       </c>
       <c r="AL19">
-        <v>0.3515918738370427</v>
+        <v>-0.3934198590721416</v>
       </c>
       <c r="AM19">
-        <v>4.526365501075413</v>
+        <v>6.968993777584775</v>
       </c>
       <c r="AN19">
-        <v>3.616930127707629</v>
+        <v>3.12692044325571</v>
       </c>
       <c r="AO19">
-        <v>4.232564748995715</v>
+        <v>4.323877885120919</v>
       </c>
       <c r="AP19">
         <v>5.120680133083599</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>0.7145921974418545</v>
-      </c>
       <c r="AJ20">
-        <v>1.02900163238957</v>
+        <v>0.6609214745737724</v>
       </c>
       <c r="AK20">
-        <v>0.5418146623296538</v>
+        <v>0.6419451410293764</v>
       </c>
       <c r="AL20">
-        <v>0.2603078110966051</v>
+        <v>-0.4466484509451862</v>
       </c>
       <c r="AM20">
-        <v>0.9036269924846962</v>
+        <v>2.868249347208462</v>
       </c>
       <c r="AN20">
-        <v>1.391416039405691</v>
+        <v>0.3931682903217437</v>
       </c>
       <c r="AO20">
-        <v>2.135688430332006</v>
+        <v>1.534407168230834</v>
       </c>
       <c r="AP20">
-        <v>5.934275247805543</v>
+        <v>4.36410677572221</v>
       </c>
       <c r="AQ20">
-        <v>1.102138938525221</v>
+        <v>5.356482122456185</v>
       </c>
       <c r="AR20">
-        <v>0.7171092762090492</v>
+        <v>1.491421088056821</v>
       </c>
       <c r="AS20">
-        <v>0.08070151925247959</v>
+        <v>0.1663052817736599</v>
       </c>
       <c r="AT20">
         <v>-0.5532735011319234</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>1.517795882992323</v>
-      </c>
       <c r="AN21">
-        <v>1.6934448956059</v>
+        <v>0.9992522876858922</v>
       </c>
       <c r="AO21">
-        <v>3.327560596118673</v>
+        <v>1.932284463699174</v>
       </c>
       <c r="AP21">
-        <v>12.79860635986787</v>
+        <v>4.324038253507556</v>
       </c>
       <c r="AQ21">
-        <v>4.283383641765459</v>
+        <v>12.62968440235452</v>
       </c>
       <c r="AR21">
-        <v>2.755142438739822</v>
+        <v>4.914994275397877</v>
       </c>
       <c r="AS21">
-        <v>1.265176565876436</v>
+        <v>1.879456885507125</v>
       </c>
       <c r="AT21">
-        <v>-1.846917864698006</v>
+        <v>-0.01718213034729299</v>
       </c>
       <c r="AU21">
-        <v>-2.696492768996317</v>
+        <v>-2.464475897442042</v>
       </c>
       <c r="AV21">
-        <v>-0.1521036778360019</v>
+        <v>-0.6748604236165856</v>
       </c>
       <c r="AW21">
-        <v>-0.9685570952743805</v>
+        <v>-0.8995735674420913</v>
       </c>
       <c r="AX21">
         <v>-1.069674659641462</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>4.748668755625496</v>
-      </c>
       <c r="AR22">
-        <v>3.295572412152148</v>
+        <v>5.129469177945922</v>
       </c>
       <c r="AS22">
-        <v>2.301539828649624</v>
+        <v>2.871162178451647</v>
       </c>
       <c r="AT22">
-        <v>0.6015327851602859</v>
+        <v>1.680783768985261</v>
       </c>
       <c r="AU22">
-        <v>0.4317200868126703</v>
+        <v>0.3893747626140698</v>
       </c>
       <c r="AV22">
-        <v>1.645968204809645</v>
+        <v>1.793234865396309</v>
       </c>
       <c r="AW22">
-        <v>-0.01788907424267183</v>
+        <v>0.3402056885013272</v>
       </c>
       <c r="AX22">
-        <v>-0.7986414110784379</v>
+        <v>-1.285281499260049</v>
       </c>
       <c r="AY22">
-        <v>-4.127040013406502</v>
+        <v>-3.767378395913701</v>
       </c>
       <c r="AZ22">
-        <v>-2.051528019634985</v>
+        <v>-2.112630615019295</v>
       </c>
       <c r="BA22">
-        <v>-2.436529450546909</v>
+        <v>-2.517269536358435</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.5288790014271294</v>
-      </c>
       <c r="AV23">
-        <v>0.7316661270081237</v>
+        <v>1.622567587502055</v>
       </c>
       <c r="AW23">
-        <v>-0.117515580665617</v>
+        <v>0.120987138857731</v>
       </c>
       <c r="AX23">
-        <v>-0.6368115551776965</v>
+        <v>-0.5510100780107274</v>
       </c>
       <c r="AY23">
-        <v>-2.535768303458463</v>
+        <v>-1.655020334777779</v>
       </c>
       <c r="AZ23">
-        <v>-0.3224191428759626</v>
+        <v>-0.6714033493142146</v>
       </c>
       <c r="BA23">
-        <v>-0.469872647443903</v>
+        <v>-0.5945514555738884</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-2.521238752969168</v>
-      </c>
       <c r="AZ24">
-        <v>-1.167678824207552</v>
+        <v>-1.548187846233684</v>
       </c>
       <c r="BA24">
-        <v>-1.586111264050172</v>
+        <v>-1.393945176605138</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_10_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>10.74300446324992</v>
+      </c>
+      <c r="C3">
+        <v>9.591339540850829</v>
+      </c>
+      <c r="D3">
+        <v>4.422525088127305</v>
+      </c>
+      <c r="E3">
+        <v>-14.96173956806345</v>
+      </c>
+      <c r="F3">
+        <v>-14.45332333832744</v>
+      </c>
+      <c r="G3">
+        <v>-14.35891259563729</v>
+      </c>
+      <c r="H3">
+        <v>-14.19945931766765</v>
+      </c>
+      <c r="I3">
+        <v>-14.32540669406603</v>
+      </c>
+      <c r="J3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="K3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="L3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="M3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="N3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="O3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="P3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="Q3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="R3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="S3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="T3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="U3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="V3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="W3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="X3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="Y3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="Z3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AA3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AB3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AC3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AD3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AE3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AF3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AG3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AH3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AI3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AJ3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AK3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AL3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AM3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AN3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AO3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AP3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AQ3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AR3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AS3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AT3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AU3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AV3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AW3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AX3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AY3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AZ3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="BA3">
+        <v>-14.1223525803845</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>11.13090654781819</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>10.9539390552386</v>
+        <v>9.560721766451131</v>
       </c>
       <c r="D4">
-        <v>11.07868559841723</v>
+        <v>6.769063671289799</v>
       </c>
       <c r="E4">
-        <v>11.07868559841723</v>
+        <v>-4.932343798304595</v>
       </c>
       <c r="F4">
-        <v>10.85021834978603</v>
+        <v>-2.928447329610051</v>
       </c>
       <c r="G4">
-        <v>10.85021834978603</v>
+        <v>2.682935444832424</v>
       </c>
       <c r="H4">
-        <v>10.85021834978603</v>
+        <v>8.600536527919612</v>
       </c>
       <c r="I4">
-        <v>10.85021834978603</v>
+        <v>8.726337206847944</v>
       </c>
       <c r="J4">
-        <v>10.85021834978603</v>
+        <v>7.955274439957338</v>
       </c>
       <c r="K4">
-        <v>10.85021834978603</v>
+        <v>7.955274439957338</v>
       </c>
       <c r="L4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="M4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="N4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="O4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="P4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="Q4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="R4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="S4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="T4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="U4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="V4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="W4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="X4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="Y4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="Z4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AA4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AB4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AC4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AD4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AE4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AF4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AG4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AH4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AI4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AJ4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AK4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AL4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AM4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AN4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AO4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AP4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AQ4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AR4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AS4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AT4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AU4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AV4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AW4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AX4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AY4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AZ4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="BA4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>9.396507498425466</v>
-      </c>
-      <c r="C5">
-        <v>7.193183327378438</v>
-      </c>
-      <c r="D5">
-        <v>4.672550446571067</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>4.684463748392487</v>
+        <v>-2.530314318881677</v>
       </c>
       <c r="F5">
-        <v>4.884527764493152</v>
+        <v>-3.413153280771297</v>
       </c>
       <c r="G5">
-        <v>4.884527764493152</v>
+        <v>-2.225127715916664</v>
       </c>
       <c r="H5">
-        <v>4.48949050823837</v>
+        <v>6.303897256856628</v>
       </c>
       <c r="I5">
-        <v>4.48949050823837</v>
+        <v>9.399485634179205</v>
       </c>
       <c r="J5">
-        <v>4.48949050823837</v>
+        <v>10.25770250047622</v>
       </c>
       <c r="K5">
-        <v>4.48949050823837</v>
+        <v>10.39929827784976</v>
       </c>
       <c r="L5">
-        <v>4.48949050823837</v>
+        <v>10.03764224178227</v>
       </c>
       <c r="M5">
-        <v>4.48949050823837</v>
+        <v>10.03764224178227</v>
       </c>
       <c r="N5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="O5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="P5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="Q5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="R5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="S5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="T5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="U5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="V5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="W5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="X5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="Y5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="Z5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AA5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AB5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AC5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AD5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AE5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AF5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AG5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AH5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AI5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AJ5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AK5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AL5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AM5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AN5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AO5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AP5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AQ5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AR5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AS5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AT5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AU5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AV5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AW5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AX5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AY5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AZ5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="BA5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>10.74300446324994</v>
-      </c>
-      <c r="C6">
-        <v>9.591339540850875</v>
-      </c>
-      <c r="D6">
-        <v>4.422525088127283</v>
-      </c>
-      <c r="E6">
-        <v>-14.96173956806345</v>
-      </c>
-      <c r="F6">
-        <v>-14.45332333832743</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-14.35891259563729</v>
+        <v>-3.038959494853311</v>
       </c>
       <c r="H6">
-        <v>-14.19945931766767</v>
+        <v>-0.02108609382714954</v>
       </c>
       <c r="I6">
-        <v>-14.32540669406604</v>
+        <v>1.811802132286955</v>
       </c>
       <c r="J6">
-        <v>-14.1223525803845</v>
+        <v>10.22374275635105</v>
       </c>
       <c r="K6">
-        <v>-14.1223525803845</v>
+        <v>5.169490031659651</v>
       </c>
       <c r="L6">
-        <v>-14.1223525803845</v>
+        <v>4.639893381363192</v>
       </c>
       <c r="M6">
-        <v>-14.1223525803845</v>
+        <v>4.889327527458143</v>
       </c>
       <c r="N6">
-        <v>-14.1223525803845</v>
+        <v>4.491772175554365</v>
       </c>
       <c r="O6">
-        <v>-14.1223525803845</v>
+        <v>4.491772175554365</v>
       </c>
       <c r="P6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="Q6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="R6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="S6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="T6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="U6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="V6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="W6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="X6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="Y6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="Z6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AA6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AB6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AC6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AD6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AE6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AF6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AG6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AH6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AI6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AJ6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AK6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AL6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AM6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AN6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AO6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AP6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AQ6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AR6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AS6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AT6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AU6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AV6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AW6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AX6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AY6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AZ6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="BA6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>9.560721766451131</v>
-      </c>
-      <c r="D7">
-        <v>6.769063671289777</v>
-      </c>
-      <c r="E7">
-        <v>-4.932343798304595</v>
-      </c>
-      <c r="F7">
-        <v>-2.928447329610073</v>
-      </c>
-      <c r="G7">
-        <v>2.682935444832424</v>
-      </c>
-      <c r="H7">
-        <v>8.600536527919633</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>8.726337206847944</v>
+        <v>1.319814149184384</v>
       </c>
       <c r="J7">
-        <v>7.955274439957316</v>
+        <v>10.23280922341734</v>
       </c>
       <c r="K7">
-        <v>7.955274439957316</v>
+        <v>9.213376886330327</v>
       </c>
       <c r="L7">
-        <v>7.235571181590661</v>
+        <v>8.174613408931286</v>
       </c>
       <c r="M7">
-        <v>7.235571181590661</v>
+        <v>-0.3722371047999995</v>
       </c>
       <c r="N7">
-        <v>7.235571181590661</v>
+        <v>0.3058963467304165</v>
       </c>
       <c r="O7">
-        <v>7.235571181590661</v>
+        <v>0.540318794409167</v>
       </c>
       <c r="P7">
-        <v>7.235571181590661</v>
+        <v>1.052434495141896</v>
       </c>
       <c r="Q7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="R7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="S7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="T7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="U7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="V7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="W7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="X7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="Y7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="Z7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AA7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AB7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AC7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AD7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AE7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AF7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AG7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AH7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AI7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AJ7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AK7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AL7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AM7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AN7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AO7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AP7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AQ7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AR7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AS7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AT7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AU7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AV7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AW7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AX7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AY7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AZ7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="BA7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-2.530314318881655</v>
-      </c>
-      <c r="F8">
-        <v>-3.413153280771331</v>
-      </c>
-      <c r="G8">
-        <v>-2.225127715916653</v>
-      </c>
-      <c r="H8">
-        <v>6.303897256856628</v>
-      </c>
-      <c r="I8">
-        <v>9.399485634179229</v>
-      </c>
-      <c r="J8">
-        <v>10.25770250047622</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>10.39929827784976</v>
+        <v>9.351896957080053</v>
       </c>
       <c r="L8">
-        <v>10.03764224178227</v>
+        <v>8.306848671722733</v>
       </c>
       <c r="M8">
-        <v>10.03764224178227</v>
+        <v>2.684220738731979</v>
       </c>
       <c r="N8">
-        <v>9.488155060723313</v>
+        <v>2.429116709932599</v>
       </c>
       <c r="O8">
-        <v>9.488155060723313</v>
+        <v>4.098801479368319</v>
       </c>
       <c r="P8">
-        <v>9.488155060723313</v>
+        <v>4.068173739091874</v>
       </c>
       <c r="Q8">
-        <v>9.488155060723313</v>
+        <v>3.914674283662856</v>
       </c>
       <c r="R8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="S8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="T8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="U8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="V8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="W8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="X8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="Y8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="Z8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AA8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AB8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AC8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AD8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AE8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AF8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AG8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AH8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AI8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AJ8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AK8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AL8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AM8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AN8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AO8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AP8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AQ8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AR8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AS8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AT8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AU8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AV8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AW8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AX8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AY8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AZ8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="BA8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-3.038959494853322</v>
-      </c>
-      <c r="H9">
-        <v>-0.02108609382713844</v>
-      </c>
-      <c r="I9">
-        <v>1.811802132286955</v>
-      </c>
-      <c r="J9">
-        <v>10.22374275635105</v>
-      </c>
-      <c r="K9">
-        <v>5.169490031659674</v>
-      </c>
-      <c r="L9">
-        <v>4.639893381363169</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>4.889327527458143</v>
+        <v>3.364317368127634</v>
       </c>
       <c r="N9">
-        <v>4.491772175554365</v>
+        <v>2.271896436151977</v>
       </c>
       <c r="O9">
-        <v>4.491772175554365</v>
+        <v>2.548306621254004</v>
       </c>
       <c r="P9">
-        <v>4.445724792911876</v>
+        <v>3.941300050092877</v>
       </c>
       <c r="Q9">
-        <v>4.445724792911876</v>
+        <v>3.75051862559701</v>
       </c>
       <c r="R9">
-        <v>4.445724792911876</v>
+        <v>4.984288257750213</v>
       </c>
       <c r="S9">
-        <v>4.445724792911876</v>
+        <v>5.031290904074326</v>
       </c>
       <c r="T9">
-        <v>4.445724792911876</v>
+        <v>4.40687039585641</v>
       </c>
       <c r="U9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="V9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="W9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="X9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="Y9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="Z9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AA9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AB9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AC9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AD9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AE9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AF9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AG9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AH9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AI9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AJ9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AK9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AL9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AM9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AN9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AO9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AP9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AQ9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AR9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AS9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AT9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AU9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AV9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AW9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AX9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AY9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AZ9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="BA9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>1.319814149184362</v>
-      </c>
-      <c r="J10">
-        <v>10.23280922341729</v>
-      </c>
-      <c r="K10">
-        <v>9.213376886330305</v>
-      </c>
-      <c r="L10">
-        <v>8.174613408931286</v>
-      </c>
-      <c r="M10">
-        <v>-0.3722371047999662</v>
-      </c>
-      <c r="N10">
-        <v>0.3058963467304165</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.540318794409167</v>
+        <v>2.674283103378206</v>
       </c>
       <c r="P10">
-        <v>1.052434495141918</v>
+        <v>3.068079903351939</v>
       </c>
       <c r="Q10">
-        <v>1.101453765199745</v>
+        <v>2.714258593289998</v>
       </c>
       <c r="R10">
-        <v>1.101453765199745</v>
+        <v>4.188839638544284</v>
       </c>
       <c r="S10">
-        <v>1.101453765199745</v>
+        <v>2.352205130086094</v>
       </c>
       <c r="T10">
-        <v>1.101453765199745</v>
+        <v>1.878184267712912</v>
       </c>
       <c r="U10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="V10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="W10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="X10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="Y10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="Z10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AA10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AB10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AC10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AD10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AE10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AF10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AG10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AH10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AI10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AJ10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AK10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AL10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AM10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AN10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AO10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AP10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AQ10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AR10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AS10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AT10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AU10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AV10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AW10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AX10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AY10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AZ10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="BA10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>9.351896957080029</v>
-      </c>
-      <c r="L11">
-        <v>8.306848671722754</v>
-      </c>
-      <c r="M11">
-        <v>2.684220738731935</v>
-      </c>
-      <c r="N11">
-        <v>2.429116709932622</v>
-      </c>
-      <c r="O11">
-        <v>4.098801479368341</v>
-      </c>
-      <c r="P11">
-        <v>4.068173739091874</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>3.914674283662856</v>
+        <v>2.678760012078252</v>
       </c>
       <c r="R11">
-        <v>3.917168917088798</v>
+        <v>4.370559241735172</v>
       </c>
       <c r="S11">
-        <v>3.917168917088798</v>
+        <v>3.873414041014778</v>
       </c>
       <c r="T11">
-        <v>3.917168917088798</v>
+        <v>2.514670279852349</v>
       </c>
       <c r="U11">
-        <v>3.917168917088798</v>
+        <v>4.083548352538391</v>
       </c>
       <c r="V11">
-        <v>3.917168917088798</v>
+        <v>4.695933104194361</v>
       </c>
       <c r="W11">
-        <v>3.917168917088798</v>
+        <v>4.709396002486788</v>
       </c>
       <c r="X11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="Y11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="Z11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AA11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AB11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AC11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AD11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AE11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AF11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AG11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AH11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AI11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AJ11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AK11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AL11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AM11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AN11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AO11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AP11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AQ11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AR11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AS11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AT11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AU11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AV11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AW11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AX11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AY11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AZ11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="BA11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>3.364317368127612</v>
-      </c>
-      <c r="N12">
-        <v>2.271896436151977</v>
-      </c>
-      <c r="O12">
-        <v>2.548306621254004</v>
-      </c>
-      <c r="P12">
-        <v>3.9413000500929</v>
-      </c>
-      <c r="Q12">
-        <v>3.75051862559701</v>
-      </c>
-      <c r="R12">
-        <v>4.984288257750213</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>5.031290904074348</v>
+        <v>3.867237198038054</v>
       </c>
       <c r="T12">
-        <v>4.406870395856433</v>
+        <v>2.973453325573505</v>
       </c>
       <c r="U12">
-        <v>4.449305425651406</v>
+        <v>3.58625614607444</v>
       </c>
       <c r="V12">
-        <v>4.449305425651406</v>
+        <v>4.5579527192392</v>
       </c>
       <c r="W12">
-        <v>4.449305425651406</v>
+        <v>6.704509587264518</v>
       </c>
       <c r="X12">
-        <v>4.449305425651406</v>
+        <v>4.861590900330715</v>
       </c>
       <c r="Y12">
-        <v>4.449305425651406</v>
+        <v>5.402237127943765</v>
       </c>
       <c r="Z12">
-        <v>4.449305425651406</v>
+        <v>4.892602738886098</v>
       </c>
       <c r="AA12">
-        <v>4.449305425651406</v>
+        <v>4.957105241469595</v>
       </c>
       <c r="AB12">
-        <v>4.449305425651406</v>
+        <v>4.971495141117499</v>
       </c>
       <c r="AC12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AD12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AE12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AF12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AG12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AH12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AI12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AJ12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AK12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AL12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AM12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AN12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AO12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AP12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AQ12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AR12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AS12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AT12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AU12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AV12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AW12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AX12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AY12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AZ12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="BA12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>2.674283103378228</v>
-      </c>
-      <c r="P13">
-        <v>3.068079903351939</v>
-      </c>
-      <c r="Q13">
-        <v>2.714258593289975</v>
-      </c>
-      <c r="R13">
-        <v>4.188839638544284</v>
-      </c>
-      <c r="S13">
-        <v>2.352205130086071</v>
-      </c>
-      <c r="T13">
-        <v>1.878184267712912</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>1.929818022700958</v>
+        <v>3.477293734143716</v>
       </c>
       <c r="V13">
-        <v>1.929818022700958</v>
+        <v>3.736905323295669</v>
       </c>
       <c r="W13">
-        <v>1.929818022700958</v>
+        <v>4.268691600002228</v>
       </c>
       <c r="X13">
-        <v>1.929818022700958</v>
+        <v>3.297472770389764</v>
       </c>
       <c r="Y13">
-        <v>1.929818022700958</v>
+        <v>4.104053120889195</v>
       </c>
       <c r="Z13">
-        <v>1.929818022700958</v>
+        <v>1.957202207503861</v>
       </c>
       <c r="AA13">
-        <v>1.929818022700958</v>
+        <v>1.675184815837505</v>
       </c>
       <c r="AB13">
-        <v>1.929818022700958</v>
+        <v>1.787861866846807</v>
       </c>
       <c r="AC13">
-        <v>1.929818022700958</v>
+        <v>0.8513583007189407</v>
       </c>
       <c r="AD13">
-        <v>1.929818022700958</v>
+        <v>0.8049382522247184</v>
       </c>
       <c r="AE13">
-        <v>1.929818022700958</v>
+        <v>0.7248455917398866</v>
       </c>
       <c r="AF13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AG13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AH13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AI13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AJ13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AK13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AL13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AM13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AN13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AO13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AP13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AQ13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AR13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AS13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AT13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AU13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AV13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AW13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AX13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AY13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AZ13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="BA13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>2.678760012078252</v>
-      </c>
-      <c r="R14">
-        <v>4.37055924173515</v>
-      </c>
-      <c r="S14">
-        <v>3.873414041014778</v>
-      </c>
-      <c r="T14">
-        <v>2.514670279852349</v>
-      </c>
-      <c r="U14">
-        <v>4.083548352538369</v>
-      </c>
-      <c r="V14">
-        <v>4.695933104194339</v>
-      </c>
-      <c r="W14">
-        <v>4.70939600248681</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>4.693514706708668</v>
+        <v>3.806717962491701</v>
       </c>
       <c r="Y14">
-        <v>4.693514706708668</v>
+        <v>4.713861391543661</v>
       </c>
       <c r="Z14">
-        <v>4.693514706708668</v>
+        <v>3.729352035327493</v>
       </c>
       <c r="AA14">
-        <v>4.693514706708668</v>
+        <v>3.589879698956056</v>
       </c>
       <c r="AB14">
-        <v>4.693514706708668</v>
+        <v>4.088367525047842</v>
       </c>
       <c r="AC14">
-        <v>4.693514706708668</v>
+        <v>2.225279621195853</v>
       </c>
       <c r="AD14">
-        <v>4.693514706708668</v>
+        <v>2.267257846564918</v>
       </c>
       <c r="AE14">
-        <v>4.693514706708668</v>
+        <v>1.015697339178057</v>
       </c>
       <c r="AF14">
-        <v>4.693514706708668</v>
+        <v>-2.21482332957591</v>
       </c>
       <c r="AG14">
-        <v>4.693514706708668</v>
+        <v>-12.64425337954553</v>
       </c>
       <c r="AH14">
-        <v>4.693514706708668</v>
+        <v>-8.784173899737169</v>
       </c>
       <c r="AI14">
-        <v>4.693514706708668</v>
+        <v>-8.818502995119548</v>
       </c>
       <c r="AJ14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AK14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AL14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AM14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AN14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AO14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AP14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AQ14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AR14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AS14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AT14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AU14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AV14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AW14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AX14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AY14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AZ14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="BA14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>3.867237198038054</v>
-      </c>
-      <c r="T15">
-        <v>2.973453325573483</v>
-      </c>
-      <c r="U15">
-        <v>3.586256146074462</v>
-      </c>
-      <c r="V15">
-        <v>4.5579527192392</v>
-      </c>
-      <c r="W15">
-        <v>6.704509587264518</v>
-      </c>
-      <c r="X15">
-        <v>4.861590900330692</v>
-      </c>
-      <c r="Y15">
-        <v>5.402237127943743</v>
-      </c>
-      <c r="Z15">
-        <v>4.892602738886098</v>
-      </c>
-      <c r="AA15">
-        <v>4.957105241469595</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>4.971495141117499</v>
+        <v>4.090202509500851</v>
       </c>
       <c r="AC15">
-        <v>4.873158811425471</v>
+        <v>3.027407549435912</v>
       </c>
       <c r="AD15">
-        <v>4.873158811425471</v>
+        <v>2.749243798227763</v>
       </c>
       <c r="AE15">
-        <v>4.873158811425471</v>
+        <v>2.122104735451624</v>
       </c>
       <c r="AF15">
-        <v>4.873158811425471</v>
+        <v>-0.6322362079330235</v>
       </c>
       <c r="AG15">
-        <v>4.873158811425471</v>
+        <v>-18.48823254760789</v>
       </c>
       <c r="AH15">
-        <v>4.873158811425471</v>
+        <v>-1.352810423674367</v>
       </c>
       <c r="AI15">
-        <v>4.873158811425471</v>
+        <v>4.074459326939817</v>
       </c>
       <c r="AJ15">
-        <v>4.873158811425471</v>
+        <v>5.581748139214504</v>
       </c>
       <c r="AK15">
-        <v>4.873158811425471</v>
+        <v>5.454877718182383</v>
       </c>
       <c r="AL15">
-        <v>4.873158811425471</v>
+        <v>5.110501195359984</v>
       </c>
       <c r="AM15">
-        <v>4.873158811425471</v>
+        <v>6.067530320832093</v>
       </c>
       <c r="AN15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AO15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AP15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AQ15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AR15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AS15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AT15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AU15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AV15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AW15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AX15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AY15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AZ15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="BA15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>3.477293734143738</v>
-      </c>
-      <c r="V16">
-        <v>3.736905323295669</v>
-      </c>
-      <c r="W16">
-        <v>4.268691600002228</v>
-      </c>
-      <c r="X16">
-        <v>3.297472770389764</v>
-      </c>
-      <c r="Y16">
-        <v>4.104053120889217</v>
-      </c>
-      <c r="Z16">
-        <v>1.957202207503861</v>
-      </c>
-      <c r="AA16">
-        <v>1.675184815837505</v>
-      </c>
-      <c r="AB16">
-        <v>1.787861866846807</v>
-      </c>
-      <c r="AC16">
-        <v>0.8513583007189629</v>
-      </c>
-      <c r="AD16">
-        <v>0.8049382522247184</v>
-      </c>
-      <c r="AE16">
-        <v>0.7248455917398866</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>0.862099696137153</v>
+        <v>0.1730630839668956</v>
       </c>
       <c r="AG16">
-        <v>0.862099696137153</v>
+        <v>-8.769168140152539</v>
       </c>
       <c r="AH16">
-        <v>0.862099696137153</v>
+        <v>-1.731521943170578</v>
       </c>
       <c r="AI16">
-        <v>0.862099696137153</v>
+        <v>-0.2414327668618488</v>
       </c>
       <c r="AJ16">
-        <v>0.862099696137153</v>
+        <v>1.077755602068309</v>
       </c>
       <c r="AK16">
-        <v>0.862099696137153</v>
+        <v>1.148476797857967</v>
       </c>
       <c r="AL16">
-        <v>0.862099696137153</v>
+        <v>-0.3934198590721305</v>
       </c>
       <c r="AM16">
-        <v>0.862099696137153</v>
+        <v>6.968993777584775</v>
       </c>
       <c r="AN16">
-        <v>0.862099696137153</v>
+        <v>3.12692044325571</v>
       </c>
       <c r="AO16">
-        <v>0.862099696137153</v>
+        <v>4.323877885120919</v>
       </c>
       <c r="AP16">
-        <v>0.862099696137153</v>
+        <v>5.120680133083622</v>
       </c>
       <c r="AQ16">
-        <v>0.862099696137153</v>
+        <v>5.225964436448516</v>
       </c>
       <c r="AR16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AS16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AT16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AU16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AV16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AW16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AX16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AY16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AZ16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="BA16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>3.806717962491701</v>
-      </c>
-      <c r="Y17">
-        <v>4.713861391543683</v>
-      </c>
-      <c r="Z17">
-        <v>3.729352035327516</v>
-      </c>
-      <c r="AA17">
-        <v>3.589879698956056</v>
-      </c>
-      <c r="AB17">
-        <v>4.088367525047842</v>
-      </c>
-      <c r="AC17">
-        <v>2.225279621195808</v>
-      </c>
-      <c r="AD17">
-        <v>2.267257846564918</v>
-      </c>
-      <c r="AE17">
-        <v>1.015697339178034</v>
-      </c>
-      <c r="AF17">
-        <v>-2.21482332957591</v>
-      </c>
-      <c r="AG17">
-        <v>-12.64425337954553</v>
-      </c>
-      <c r="AH17">
-        <v>-8.784173899737169</v>
-      </c>
-      <c r="AI17">
-        <v>-8.818502995119569</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-8.794825048137477</v>
+        <v>0.6609214745737946</v>
       </c>
       <c r="AK17">
-        <v>-8.794825048137477</v>
+        <v>0.6419451410293764</v>
       </c>
       <c r="AL17">
-        <v>-8.794825048137477</v>
+        <v>-0.4466484509451862</v>
       </c>
       <c r="AM17">
-        <v>-8.794825048137477</v>
+        <v>2.868249347208462</v>
       </c>
       <c r="AN17">
-        <v>-8.794825048137477</v>
+        <v>0.3931682903217437</v>
       </c>
       <c r="AO17">
-        <v>-8.794825048137477</v>
+        <v>1.534407168230811</v>
       </c>
       <c r="AP17">
-        <v>-8.794825048137477</v>
+        <v>4.36410677572221</v>
       </c>
       <c r="AQ17">
-        <v>-8.794825048137477</v>
+        <v>5.356482122456163</v>
       </c>
       <c r="AR17">
-        <v>-8.794825048137477</v>
+        <v>1.491421088056821</v>
       </c>
       <c r="AS17">
-        <v>-8.794825048137477</v>
+        <v>0.1663052817736599</v>
       </c>
       <c r="AT17">
-        <v>-8.794825048137477</v>
+        <v>-0.5532735011319123</v>
       </c>
       <c r="AU17">
-        <v>-8.794825048137477</v>
+        <v>-0.5374742517153308</v>
       </c>
       <c r="AV17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AW17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AX17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AY17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AZ17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="BA17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>4.090202509500829</v>
-      </c>
-      <c r="AC18">
-        <v>3.027407549435912</v>
-      </c>
-      <c r="AD18">
-        <v>2.749243798227763</v>
-      </c>
-      <c r="AE18">
-        <v>2.122104735451602</v>
-      </c>
-      <c r="AF18">
-        <v>-0.6322362079330346</v>
-      </c>
-      <c r="AG18">
-        <v>-18.48823254760789</v>
-      </c>
-      <c r="AH18">
-        <v>-1.352810423674344</v>
-      </c>
-      <c r="AI18">
-        <v>4.074459326939794</v>
-      </c>
-      <c r="AJ18">
-        <v>5.581748139214504</v>
-      </c>
-      <c r="AK18">
-        <v>5.454877718182383</v>
-      </c>
-      <c r="AL18">
-        <v>5.110501195359984</v>
-      </c>
-      <c r="AM18">
-        <v>6.067530320832093</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>6.095721945083143</v>
+        <v>0.99925228768587</v>
       </c>
       <c r="AO18">
-        <v>6.095721945083143</v>
+        <v>1.932284463699196</v>
       </c>
       <c r="AP18">
-        <v>6.095721945083143</v>
+        <v>4.324038253507534</v>
       </c>
       <c r="AQ18">
-        <v>6.095721945083143</v>
+        <v>12.6296844023545</v>
       </c>
       <c r="AR18">
-        <v>6.095721945083143</v>
+        <v>4.914994275397877</v>
       </c>
       <c r="AS18">
-        <v>6.095721945083143</v>
+        <v>1.879456885507125</v>
       </c>
       <c r="AT18">
-        <v>6.095721945083143</v>
+        <v>-0.01718213034729299</v>
       </c>
       <c r="AU18">
-        <v>6.095721945083143</v>
+        <v>-2.464475897442031</v>
       </c>
       <c r="AV18">
-        <v>6.095721945083143</v>
+        <v>-0.6748604236165856</v>
       </c>
       <c r="AW18">
-        <v>6.095721945083143</v>
+        <v>-0.8995735674421024</v>
       </c>
       <c r="AX18">
-        <v>6.095721945083143</v>
+        <v>-1.069674659641462</v>
       </c>
       <c r="AY18">
-        <v>6.095721945083143</v>
+        <v>-1.011423455352589</v>
       </c>
       <c r="AZ18">
-        <v>6.095721945083143</v>
+        <v>-1.48753958890171</v>
       </c>
       <c r="BA18">
-        <v>6.095721945083143</v>
+        <v>-1.48753958890171</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>0.1730630839669178</v>
-      </c>
-      <c r="AG19">
-        <v>-8.769168140152539</v>
-      </c>
-      <c r="AH19">
-        <v>-1.731521943170589</v>
-      </c>
-      <c r="AI19">
-        <v>-0.2414327668618266</v>
-      </c>
-      <c r="AJ19">
-        <v>1.077755602068331</v>
-      </c>
-      <c r="AK19">
-        <v>1.148476797857945</v>
-      </c>
-      <c r="AL19">
-        <v>-0.3934198590721416</v>
-      </c>
-      <c r="AM19">
-        <v>6.968993777584775</v>
-      </c>
-      <c r="AN19">
-        <v>3.12692044325571</v>
-      </c>
-      <c r="AO19">
-        <v>4.323877885120919</v>
-      </c>
-      <c r="AP19">
-        <v>5.120680133083599</v>
-      </c>
-      <c r="AQ19">
-        <v>5.225964436448516</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>5.588511616267167</v>
+        <v>5.1294691779459</v>
       </c>
       <c r="AS19">
-        <v>5.588511616267167</v>
+        <v>2.871162178451625</v>
       </c>
       <c r="AT19">
-        <v>5.588511616267167</v>
+        <v>1.680783768985283</v>
       </c>
       <c r="AU19">
-        <v>5.588511616267167</v>
+        <v>0.3893747626140698</v>
       </c>
       <c r="AV19">
-        <v>5.588511616267167</v>
+        <v>1.793234865396331</v>
       </c>
       <c r="AW19">
-        <v>5.588511616267167</v>
+        <v>0.3402056885013494</v>
       </c>
       <c r="AX19">
-        <v>5.588511616267167</v>
+        <v>-1.28528149926006</v>
       </c>
       <c r="AY19">
-        <v>5.588511616267167</v>
+        <v>-3.767378395913701</v>
       </c>
       <c r="AZ19">
-        <v>5.588511616267167</v>
+        <v>-2.112630615019295</v>
       </c>
       <c r="BA19">
-        <v>5.588511616267167</v>
+        <v>-2.517269536358435</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>0.6609214745737724</v>
-      </c>
-      <c r="AK20">
-        <v>0.6419451410293764</v>
-      </c>
-      <c r="AL20">
-        <v>-0.4466484509451862</v>
-      </c>
-      <c r="AM20">
-        <v>2.868249347208462</v>
-      </c>
-      <c r="AN20">
-        <v>0.3931682903217437</v>
-      </c>
-      <c r="AO20">
-        <v>1.534407168230834</v>
-      </c>
-      <c r="AP20">
-        <v>4.36410677572221</v>
-      </c>
-      <c r="AQ20">
-        <v>5.356482122456185</v>
-      </c>
-      <c r="AR20">
-        <v>1.491421088056821</v>
-      </c>
-      <c r="AS20">
-        <v>0.1663052817736599</v>
-      </c>
-      <c r="AT20">
-        <v>-0.5532735011319234</v>
-      </c>
-      <c r="AU20">
-        <v>-0.5374742517153308</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.008466500317672043</v>
+        <v>1.622567587502055</v>
       </c>
       <c r="AW20">
-        <v>-0.008466500317672043</v>
+        <v>0.1209871388577088</v>
       </c>
       <c r="AX20">
-        <v>-0.008466500317672043</v>
+        <v>-0.5510100780107496</v>
       </c>
       <c r="AY20">
-        <v>-0.008466500317672043</v>
+        <v>-1.655020334777801</v>
       </c>
       <c r="AZ20">
-        <v>-0.008466500317672043</v>
+        <v>-0.6714033493142035</v>
       </c>
       <c r="BA20">
-        <v>-0.008466500317672043</v>
+        <v>-0.5945514555738662</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>0.9992522876858922</v>
-      </c>
-      <c r="AO21">
-        <v>1.932284463699174</v>
-      </c>
-      <c r="AP21">
-        <v>4.324038253507556</v>
-      </c>
-      <c r="AQ21">
-        <v>12.62968440235452</v>
-      </c>
-      <c r="AR21">
-        <v>4.914994275397877</v>
-      </c>
-      <c r="AS21">
-        <v>1.879456885507125</v>
-      </c>
-      <c r="AT21">
-        <v>-0.01718213034729299</v>
-      </c>
-      <c r="AU21">
-        <v>-2.464475897442042</v>
-      </c>
-      <c r="AV21">
-        <v>-0.6748604236165856</v>
-      </c>
-      <c r="AW21">
-        <v>-0.8995735674420913</v>
-      </c>
-      <c r="AX21">
-        <v>-1.069674659641462</v>
-      </c>
-      <c r="AY21">
-        <v>-1.011423455352578</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-1.487539588901698</v>
+        <v>-1.548187846233706</v>
       </c>
       <c r="BA21">
-        <v>-1.487539588901698</v>
+        <v>-1.393945176605149</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>5.129469177945922</v>
-      </c>
-      <c r="AS22">
-        <v>2.871162178451647</v>
-      </c>
-      <c r="AT22">
-        <v>1.680783768985261</v>
-      </c>
-      <c r="AU22">
-        <v>0.3893747626140698</v>
-      </c>
-      <c r="AV22">
-        <v>1.793234865396309</v>
-      </c>
-      <c r="AW22">
-        <v>0.3402056885013272</v>
-      </c>
-      <c r="AX22">
-        <v>-1.285281499260049</v>
-      </c>
-      <c r="AY22">
-        <v>-3.767378395913701</v>
-      </c>
-      <c r="AZ22">
-        <v>-2.112630615019295</v>
-      </c>
-      <c r="BA22">
-        <v>-2.517269536358435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>1.622567587502055</v>
-      </c>
-      <c r="AW23">
-        <v>0.120987138857731</v>
-      </c>
-      <c r="AX23">
-        <v>-0.5510100780107274</v>
-      </c>
-      <c r="AY23">
-        <v>-1.655020334777779</v>
-      </c>
-      <c r="AZ23">
-        <v>-0.6714033493142146</v>
-      </c>
-      <c r="BA23">
-        <v>-0.5945514555738884</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-1.548187846233684</v>
-      </c>
-      <c r="BA24">
-        <v>-1.393945176605138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_10_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_10_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-14.1223525803845</v>
       </c>
+      <c r="BB3">
+        <v>-14.1223525803845</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>7.235571181590705</v>
       </c>
+      <c r="BB4">
+        <v>7.235571181590705</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>9.488155060723313</v>
       </c>
+      <c r="BB5">
+        <v>9.488155060723313</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>4.445724792911898</v>
       </c>
+      <c r="BB6">
+        <v>4.445724792911898</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>1.101453765199745</v>
       </c>
+      <c r="BB7">
+        <v>1.101453765199745</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>3.917168917088798</v>
       </c>
+      <c r="BB8">
+        <v>3.917168917088798</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>4.449305425651406</v>
       </c>
+      <c r="BB9">
+        <v>4.449305425651406</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>1.92981802270098</v>
       </c>
+      <c r="BB10">
+        <v>1.92981802270098</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>4.693514706708668</v>
       </c>
+      <c r="BB11">
+        <v>4.693514706708668</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>4.873158811425493</v>
       </c>
+      <c r="BB12">
+        <v>4.873158811425493</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>0.862099696137153</v>
       </c>
+      <c r="BB13">
+        <v>0.862099696137153</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-8.794825048137467</v>
       </c>
+      <c r="BB14">
+        <v>-8.794825048137467</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>6.095721945083143</v>
       </c>
+      <c r="BB15">
+        <v>6.095721945083143</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>5.588511616267167</v>
       </c>
+      <c r="BB16">
+        <v>5.588511616267167</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.008466500317649839</v>
       </c>
+      <c r="BB17">
+        <v>-0.008466500317649839</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-1.48753958890171</v>
       </c>
+      <c r="BB18">
+        <v>-1.48753958890171</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>-2.517269536358435</v>
       </c>
+      <c r="BB19">
+        <v>-2.451276118722334</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>-0.5945514555738662</v>
       </c>
+      <c r="BB20">
+        <v>-0.8888225292121632</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>-1.393945176605149</v>
       </c>
+      <c r="BB21">
+        <v>-1.723692879931693</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
